--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_v0.1_speed_coherence.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_v0.1_speed_coherence.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.121153831481934</v>
+        <v>2.110000133514404</v>
       </c>
       <c r="C2" t="n">
-        <v>1.64710521697998</v>
+        <v>2.007236957550049</v>
       </c>
       <c r="D2" t="n">
-        <v>3.209747314453125</v>
+        <v>3.019458532333374</v>
       </c>
       <c r="E2" t="n">
-        <v>2.30132007598877</v>
+        <v>2.446567535400391</v>
       </c>
       <c r="F2" t="n">
-        <v>2.262798547744751</v>
+        <v>2.267835855484009</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7555530804854172</v>
+        <v>0.6318379101844934</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8350471665984706</v>
+        <v>0.752358236595204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8200677314820273</v>
+        <v>0.7944062713681576</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8603112910053518</v>
+        <v>0.7924978772405744</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8058730562898651</v>
+        <v>0.7223803167467686</v>
       </c>
     </row>
   </sheetData>

--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_v0.1_speed_coherence.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_v0.1_speed_coherence.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.110000133514404</v>
+        <v>4.149864673614502</v>
       </c>
       <c r="C2" t="n">
-        <v>2.007236957550049</v>
+        <v>5.583168983459473</v>
       </c>
       <c r="D2" t="n">
-        <v>3.019458532333374</v>
+        <v>5.101029396057129</v>
       </c>
       <c r="E2" t="n">
-        <v>2.446567535400391</v>
+        <v>4.384023666381836</v>
       </c>
       <c r="F2" t="n">
-        <v>2.267835855484009</v>
+        <v>8.223198890686035</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6318379101844934</v>
+        <v>0.8505463672650827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.752358236595204</v>
+        <v>0.8873586352442352</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7944062713681576</v>
+        <v>0.8423741838750355</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7924978772405744</v>
+        <v>0.8669542154143838</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7223803167467686</v>
+        <v>0.896318057195164</v>
       </c>
     </row>
   </sheetData>
